--- a/contratos/contratos-6-2015.xlsx
+++ b/contratos/contratos-6-2015.xlsx
@@ -826,13 +826,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>BIDAL RODOLFO CESAR</t>
@@ -964,13 +964,13 @@
     <t>DEVOL S.A.</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>LAMOUROUX ROQUE ANTONIO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1249,7 +1249,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1432,640 +1432,640 @@
     <t>108</t>
   </si>
   <si>
-    <t>20.205,00</t>
-  </si>
-  <si>
-    <t>2.550,00</t>
-  </si>
-  <si>
-    <t>48.200,00</t>
-  </si>
-  <si>
-    <t>1.707,00</t>
-  </si>
-  <si>
-    <t>54.738,98</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>4.580,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>60.450,00</t>
-  </si>
-  <si>
-    <t>438.219,76</t>
-  </si>
-  <si>
-    <t>12.960,00</t>
-  </si>
-  <si>
-    <t>38.495,56</t>
-  </si>
-  <si>
-    <t>8.902,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>4.668,70</t>
-  </si>
-  <si>
-    <t>52.057,40</t>
-  </si>
-  <si>
-    <t>1.772,00</t>
-  </si>
-  <si>
-    <t>10.748,26</t>
-  </si>
-  <si>
-    <t>29.427,58</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>7,72</t>
-  </si>
-  <si>
-    <t>2.085,80</t>
-  </si>
-  <si>
-    <t>14.305,50</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>86.720,00</t>
-  </si>
-  <si>
-    <t>9.705,00</t>
-  </si>
-  <si>
-    <t>9.224,72</t>
-  </si>
-  <si>
-    <t>2.333,19</t>
-  </si>
-  <si>
-    <t>3.232,02</t>
-  </si>
-  <si>
-    <t>47.568,00</t>
-  </si>
-  <si>
-    <t>45.044,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>2.618,00</t>
-  </si>
-  <si>
-    <t>469,25</t>
-  </si>
-  <si>
-    <t>3.915,95</t>
-  </si>
-  <si>
-    <t>3.371,81</t>
-  </si>
-  <si>
-    <t>4.899,00</t>
-  </si>
-  <si>
-    <t>7.380,00</t>
-  </si>
-  <si>
-    <t>9.877,00</t>
-  </si>
-  <si>
-    <t>817,24</t>
-  </si>
-  <si>
-    <t>13.675,00</t>
-  </si>
-  <si>
-    <t>130.156,64</t>
-  </si>
-  <si>
-    <t>162,00</t>
-  </si>
-  <si>
-    <t>473,84</t>
-  </si>
-  <si>
-    <t>275,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>4.108,40</t>
-  </si>
-  <si>
-    <t>39.569,04</t>
-  </si>
-  <si>
-    <t>68,50</t>
-  </si>
-  <si>
-    <t>3.344,41</t>
-  </si>
-  <si>
-    <t>38,50</t>
-  </si>
-  <si>
-    <t>629,37</t>
-  </si>
-  <si>
-    <t>117.679,76</t>
-  </si>
-  <si>
-    <t>256.776,62</t>
-  </si>
-  <si>
-    <t>9.590,00</t>
-  </si>
-  <si>
-    <t>12.092,41</t>
-  </si>
-  <si>
-    <t>776,55</t>
-  </si>
-  <si>
-    <t>6.146,00</t>
-  </si>
-  <si>
-    <t>2.629,27</t>
-  </si>
-  <si>
-    <t>7.536,00</t>
-  </si>
-  <si>
-    <t>830,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>986,79</t>
-  </si>
-  <si>
-    <t>14.181,68</t>
-  </si>
-  <si>
-    <t>3.840,00</t>
-  </si>
-  <si>
-    <t>10.450,76</t>
-  </si>
-  <si>
-    <t>36.822,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>30.042,50</t>
-  </si>
-  <si>
-    <t>6.064,00</t>
-  </si>
-  <si>
-    <t>67.330,00</t>
-  </si>
-  <si>
-    <t>3.450,30</t>
-  </si>
-  <si>
-    <t>5.530,00</t>
-  </si>
-  <si>
-    <t>3.360,83</t>
-  </si>
-  <si>
-    <t>2.315,00</t>
-  </si>
-  <si>
-    <t>14.700,00</t>
-  </si>
-  <si>
-    <t>11.100,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>567,11</t>
-  </si>
-  <si>
-    <t>3.290,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>28.740,00</t>
-  </si>
-  <si>
-    <t>14.560,00</t>
-  </si>
-  <si>
-    <t>1.093,95</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>7.722,00</t>
-  </si>
-  <si>
-    <t>371.897,61</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>30,78</t>
-  </si>
-  <si>
-    <t>3.575,00</t>
-  </si>
-  <si>
-    <t>1.383,28</t>
-  </si>
-  <si>
-    <t>508,64</t>
-  </si>
-  <si>
-    <t>28.268,41</t>
-  </si>
-  <si>
-    <t>24,50</t>
-  </si>
-  <si>
-    <t>288,00</t>
-  </si>
-  <si>
-    <t>8.657,50</t>
-  </si>
-  <si>
-    <t>54,45</t>
-  </si>
-  <si>
-    <t>1.974,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>1.840,50</t>
-  </si>
-  <si>
-    <t>577,50</t>
-  </si>
-  <si>
-    <t>533,00</t>
-  </si>
-  <si>
-    <t>3.646,00</t>
-  </si>
-  <si>
-    <t>126,00</t>
-  </si>
-  <si>
-    <t>2.740,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>7.609,30</t>
-  </si>
-  <si>
-    <t>4.141,00</t>
-  </si>
-  <si>
-    <t>1.338,02</t>
-  </si>
-  <si>
-    <t>49,43</t>
-  </si>
-  <si>
-    <t>5.098,50</t>
-  </si>
-  <si>
-    <t>119,00</t>
-  </si>
-  <si>
-    <t>104,50</t>
-  </si>
-  <si>
-    <t>4.550,00</t>
-  </si>
-  <si>
-    <t>460,70</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>1.944,00</t>
-  </si>
-  <si>
-    <t>4.212,00</t>
-  </si>
-  <si>
-    <t>3.818,00</t>
-  </si>
-  <si>
-    <t>6.430,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>9.300,00</t>
-  </si>
-  <si>
-    <t>2.685,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>7.950,00</t>
-  </si>
-  <si>
-    <t>26.161,23</t>
-  </si>
-  <si>
-    <t>4.640,00</t>
-  </si>
-  <si>
-    <t>6.582,27</t>
-  </si>
-  <si>
-    <t>8.212,00</t>
-  </si>
-  <si>
-    <t>926,40</t>
-  </si>
-  <si>
-    <t>4.949,22</t>
-  </si>
-  <si>
-    <t>3.075,00</t>
-  </si>
-  <si>
-    <t>12.718,17</t>
-  </si>
-  <si>
-    <t>205.025,00</t>
-  </si>
-  <si>
-    <t>9.360,92</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>30.492,00</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>1.105,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.568,25</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>5.656,40</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>9.280,00</t>
-  </si>
-  <si>
-    <t>7.350,00</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>2.299,00</t>
-  </si>
-  <si>
-    <t>2.541,00</t>
-  </si>
-  <si>
-    <t>945,01</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>237,18</t>
-  </si>
-  <si>
-    <t>3.632,00</t>
-  </si>
-  <si>
-    <t>9.069,84</t>
-  </si>
-  <si>
-    <t>1.193,00</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>187,00</t>
-  </si>
-  <si>
-    <t>536,00</t>
-  </si>
-  <si>
-    <t>17.300,00</t>
-  </si>
-  <si>
-    <t>1.847,63</t>
-  </si>
-  <si>
-    <t>2.118,31</t>
-  </si>
-  <si>
-    <t>3.481,00</t>
-  </si>
-  <si>
-    <t>5.126,00</t>
-  </si>
-  <si>
-    <t>3.869,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>16.073,50</t>
-  </si>
-  <si>
-    <t>721,72</t>
-  </si>
-  <si>
-    <t>1.223,79</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>10.680,00</t>
-  </si>
-  <si>
-    <t>1.631,25</t>
-  </si>
-  <si>
-    <t>4.520,00</t>
-  </si>
-  <si>
-    <t>25.472,39</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>2.035,51</t>
-  </si>
-  <si>
-    <t>84.200,00</t>
-  </si>
-  <si>
-    <t>894.489,72</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>165.800,21</t>
-  </si>
-  <si>
-    <t>199.334,95</t>
-  </si>
-  <si>
-    <t>238.500,00</t>
-  </si>
-  <si>
-    <t>395.386,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>63.550,00</t>
-  </si>
-  <si>
-    <t>120.370,25</t>
-  </si>
-  <si>
-    <t>350.141,20</t>
-  </si>
-  <si>
-    <t>303.315,00</t>
-  </si>
-  <si>
-    <t>65.000,00</t>
-  </si>
-  <si>
-    <t>215.241,00</t>
-  </si>
-  <si>
-    <t>217.700,00</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>3.999,99</t>
-  </si>
-  <si>
-    <t>8.587,25</t>
-  </si>
-  <si>
-    <t>37.110,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>248.000,00</t>
-  </si>
-  <si>
-    <t>12.540,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
+    <t>20205.00</t>
+  </si>
+  <si>
+    <t>2550.00</t>
+  </si>
+  <si>
+    <t>48200.00</t>
+  </si>
+  <si>
+    <t>1707.00</t>
+  </si>
+  <si>
+    <t>54738.98</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>4580.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>60450.00</t>
+  </si>
+  <si>
+    <t>438219.76</t>
+  </si>
+  <si>
+    <t>12960.00</t>
+  </si>
+  <si>
+    <t>38495.56</t>
+  </si>
+  <si>
+    <t>8902.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>4668.70</t>
+  </si>
+  <si>
+    <t>52057.40</t>
+  </si>
+  <si>
+    <t>1772.00</t>
+  </si>
+  <si>
+    <t>10748.26</t>
+  </si>
+  <si>
+    <t>29427.58</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>7.72</t>
+  </si>
+  <si>
+    <t>2085.80</t>
+  </si>
+  <si>
+    <t>14305.50</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>86720.00</t>
+  </si>
+  <si>
+    <t>9705.00</t>
+  </si>
+  <si>
+    <t>9224.72</t>
+  </si>
+  <si>
+    <t>2333.19</t>
+  </si>
+  <si>
+    <t>3232.02</t>
+  </si>
+  <si>
+    <t>47568.00</t>
+  </si>
+  <si>
+    <t>45044.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>2618.00</t>
+  </si>
+  <si>
+    <t>469.25</t>
+  </si>
+  <si>
+    <t>3915.95</t>
+  </si>
+  <si>
+    <t>3371.81</t>
+  </si>
+  <si>
+    <t>4899.00</t>
+  </si>
+  <si>
+    <t>7380.00</t>
+  </si>
+  <si>
+    <t>9877.00</t>
+  </si>
+  <si>
+    <t>817.24</t>
+  </si>
+  <si>
+    <t>13675.00</t>
+  </si>
+  <si>
+    <t>130156.64</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>473.84</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>4108.40</t>
+  </si>
+  <si>
+    <t>39569.04</t>
+  </si>
+  <si>
+    <t>68.50</t>
+  </si>
+  <si>
+    <t>3344.41</t>
+  </si>
+  <si>
+    <t>38.50</t>
+  </si>
+  <si>
+    <t>629.37</t>
+  </si>
+  <si>
+    <t>117679.76</t>
+  </si>
+  <si>
+    <t>256776.62</t>
+  </si>
+  <si>
+    <t>9590.00</t>
+  </si>
+  <si>
+    <t>12092.41</t>
+  </si>
+  <si>
+    <t>776.55</t>
+  </si>
+  <si>
+    <t>6146.00</t>
+  </si>
+  <si>
+    <t>2629.27</t>
+  </si>
+  <si>
+    <t>7536.00</t>
+  </si>
+  <si>
+    <t>830.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>986.79</t>
+  </si>
+  <si>
+    <t>14181.68</t>
+  </si>
+  <si>
+    <t>3840.00</t>
+  </si>
+  <si>
+    <t>10450.76</t>
+  </si>
+  <si>
+    <t>36822.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>30042.50</t>
+  </si>
+  <si>
+    <t>6064.00</t>
+  </si>
+  <si>
+    <t>67330.00</t>
+  </si>
+  <si>
+    <t>3450.30</t>
+  </si>
+  <si>
+    <t>5530.00</t>
+  </si>
+  <si>
+    <t>3360.83</t>
+  </si>
+  <si>
+    <t>2315.00</t>
+  </si>
+  <si>
+    <t>14700.00</t>
+  </si>
+  <si>
+    <t>11100.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>567.11</t>
+  </si>
+  <si>
+    <t>3290.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>28740.00</t>
+  </si>
+  <si>
+    <t>14560.00</t>
+  </si>
+  <si>
+    <t>1093.95</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>7722.00</t>
+  </si>
+  <si>
+    <t>371897.61</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>30.78</t>
+  </si>
+  <si>
+    <t>3575.00</t>
+  </si>
+  <si>
+    <t>1383.28</t>
+  </si>
+  <si>
+    <t>508.64</t>
+  </si>
+  <si>
+    <t>28268.41</t>
+  </si>
+  <si>
+    <t>24.50</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>8657.50</t>
+  </si>
+  <si>
+    <t>54.45</t>
+  </si>
+  <si>
+    <t>1974.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>1840.50</t>
+  </si>
+  <si>
+    <t>577.50</t>
+  </si>
+  <si>
+    <t>533.00</t>
+  </si>
+  <si>
+    <t>3646.00</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>2740.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>7609.30</t>
+  </si>
+  <si>
+    <t>4141.00</t>
+  </si>
+  <si>
+    <t>1338.02</t>
+  </si>
+  <si>
+    <t>49.43</t>
+  </si>
+  <si>
+    <t>5098.50</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>104.50</t>
+  </si>
+  <si>
+    <t>4550.00</t>
+  </si>
+  <si>
+    <t>460.70</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>1944.00</t>
+  </si>
+  <si>
+    <t>4212.00</t>
+  </si>
+  <si>
+    <t>3818.00</t>
+  </si>
+  <si>
+    <t>6430.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>2685.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>26161.23</t>
+  </si>
+  <si>
+    <t>4640.00</t>
+  </si>
+  <si>
+    <t>6582.27</t>
+  </si>
+  <si>
+    <t>8212.00</t>
+  </si>
+  <si>
+    <t>926.40</t>
+  </si>
+  <si>
+    <t>4949.22</t>
+  </si>
+  <si>
+    <t>3075.00</t>
+  </si>
+  <si>
+    <t>12718.17</t>
+  </si>
+  <si>
+    <t>205025.00</t>
+  </si>
+  <si>
+    <t>9360.92</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>30492.00</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>1105.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1568.25</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>5656.40</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>9280.00</t>
+  </si>
+  <si>
+    <t>7350.00</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>2299.00</t>
+  </si>
+  <si>
+    <t>2541.00</t>
+  </si>
+  <si>
+    <t>945.01</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>237.18</t>
+  </si>
+  <si>
+    <t>3632.00</t>
+  </si>
+  <si>
+    <t>9069.84</t>
+  </si>
+  <si>
+    <t>1193.00</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>187.00</t>
+  </si>
+  <si>
+    <t>536.00</t>
+  </si>
+  <si>
+    <t>17300.00</t>
+  </si>
+  <si>
+    <t>1847.63</t>
+  </si>
+  <si>
+    <t>2118.31</t>
+  </si>
+  <si>
+    <t>3481.00</t>
+  </si>
+  <si>
+    <t>5126.00</t>
+  </si>
+  <si>
+    <t>3869.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>16073.50</t>
+  </si>
+  <si>
+    <t>721.72</t>
+  </si>
+  <si>
+    <t>1223.79</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>10680.00</t>
+  </si>
+  <si>
+    <t>1631.25</t>
+  </si>
+  <si>
+    <t>4520.00</t>
+  </si>
+  <si>
+    <t>25472.39</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>2035.51</t>
+  </si>
+  <si>
+    <t>84200.00</t>
+  </si>
+  <si>
+    <t>894489.72</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>165800.21</t>
+  </si>
+  <si>
+    <t>199334.95</t>
+  </si>
+  <si>
+    <t>238500.00</t>
+  </si>
+  <si>
+    <t>395386.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>63550.00</t>
+  </si>
+  <si>
+    <t>120370.25</t>
+  </si>
+  <si>
+    <t>350141.20</t>
+  </si>
+  <si>
+    <t>303315.00</t>
+  </si>
+  <si>
+    <t>65000.00</t>
+  </si>
+  <si>
+    <t>215241.00</t>
+  </si>
+  <si>
+    <t>217700.00</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>3999.99</t>
+  </si>
+  <si>
+    <t>8587.25</t>
+  </si>
+  <si>
+    <t>37110.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>248000.00</t>
+  </si>
+  <si>
+    <t>12540.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
   </si>
 </sst>
 </file>
